--- a/Internet_Banking_System_SIQ.xlsx
+++ b/Internet_Banking_System_SIQ.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BFAF1-3C48-477B-B4B5-1101E204A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C28EE5-73E1-4900-9CA6-7F79C7B6AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9049F1B4-A647-4BD2-B71B-B1DEE2826491}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE6957BC-4A63-4807-906E-5AC43CC141EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Review" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,27 +34,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t xml:space="preserve">Question_ID </t>
   </si>
   <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstName &amp; last name contain characters only </t>
+  </si>
+  <si>
+    <t>FirstName &amp; last name are not case sensitive</t>
+  </si>
+  <si>
+    <t>Username contains characters and numbers only</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mobile number start with prefix +20 and consists of 10 preceeding digits </t>
+  </si>
+  <si>
+    <t>National ID consists of 14 digits</t>
+  </si>
+  <si>
+    <t>password not less than 8 enteries and includeds at least one upper case letter, digit, 
+and a special character</t>
+  </si>
+  <si>
+    <t>CRS_001</t>
+  </si>
+  <si>
+    <t>CRS_002</t>
+  </si>
+  <si>
+    <t>CRS_003</t>
+  </si>
+  <si>
+    <t>CRS_004</t>
+  </si>
+  <si>
+    <t>CRS_005</t>
+  </si>
+  <si>
+    <t>CRS_006</t>
+  </si>
+  <si>
+    <t>CRS_007</t>
+  </si>
+  <si>
     <t>Feature Name</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>CRS_001</t>
-  </si>
-  <si>
     <t>Registration</t>
+  </si>
+  <si>
+    <t>CRS_008</t>
+  </si>
+  <si>
+    <t>CRS_009</t>
+  </si>
+  <si>
+    <t>CRS_010</t>
+  </si>
+  <si>
+    <t>Add Account</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Fields required are username and pass</t>
+  </si>
+  <si>
+    <t>Successsful registration results in the creation of one account by default</t>
+  </si>
+  <si>
+    <t>CRS_011</t>
+  </si>
+  <si>
+    <t>CRS_012</t>
+  </si>
+  <si>
+    <t>The field required is the additional customer ID only</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>The only available transaction is transfer of money</t>
+  </si>
+  <si>
+    <t>Transfer is available between the multiple accounts of the same user or between different accounts 
+exisiting on the web portal only</t>
+  </si>
+  <si>
+    <t>The maximum additional accounts to be added are two on top of the initial account created 
+through registration</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin tasks  will be handled in the backend</t>
+  </si>
+  <si>
+    <t>CRS_013</t>
+  </si>
+  <si>
+    <t>CRS_014</t>
+  </si>
+  <si>
+    <t>CRS_015</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Client can review previous transactions up to  6 months prior</t>
+  </si>
+  <si>
+    <t>CRS_016</t>
   </si>
   <si>
     <r>
@@ -82,122 +187,20 @@
     </r>
   </si>
   <si>
-    <t>CRS_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstName &amp; last name contain characters only </t>
-  </si>
-  <si>
-    <t>CRS_003</t>
-  </si>
-  <si>
-    <t>FirstName &amp; last name are not case sensitive</t>
-  </si>
-  <si>
-    <t>CRS_004</t>
-  </si>
-  <si>
-    <t>Username contains characters and numbers only</t>
-  </si>
-  <si>
-    <t>CRS_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mobile number start with prefix +20 and consists of 10 preceeding digits </t>
-  </si>
-  <si>
-    <t>CRS_006</t>
-  </si>
-  <si>
-    <t>National ID consists of 14 digits</t>
-  </si>
-  <si>
-    <t>CRS_007</t>
-  </si>
-  <si>
-    <t>Customer ID contains Numbers only</t>
-  </si>
-  <si>
-    <t>CRS_008</t>
-  </si>
-  <si>
-    <t>password not less than 8 enteries and includeds at least one upper case letter, digit, 
-and a special character</t>
-  </si>
-  <si>
-    <t>CRS_009</t>
-  </si>
-  <si>
-    <t>Successsful registration results in the creation of one account by default</t>
-  </si>
-  <si>
-    <t>CRS_010</t>
-  </si>
-  <si>
-    <t>Add Account</t>
-  </si>
-  <si>
-    <t>The field required is the additional customer ID only</t>
-  </si>
-  <si>
-    <t>CRS_011</t>
-  </si>
-  <si>
-    <t>The maximum additional accounts to be added are two on top of the initial account created 
-through registration</t>
-  </si>
-  <si>
-    <t>CRS_012</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Fields required are username and pass</t>
-  </si>
-  <si>
-    <t>CRS_013</t>
-  </si>
-  <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>The only available transaction is transfer of money</t>
-  </si>
-  <si>
-    <t>CRS_014</t>
-  </si>
-  <si>
-    <t>Transfer is available between the multiple accounts of the same user or between different accounts 
-exisiting on the web portal only</t>
-  </si>
-  <si>
-    <t>CRS_015</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Admin tasks  will be handled in the backend</t>
-  </si>
-  <si>
-    <t>CRS_016</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Client can review previous transactions up to  6 months prior</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Customer ID is unique and contains Numbers only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history of each transaction shows the following details: sender, reciever, date of transaction and amount. </t>
+  </si>
+  <si>
+    <t>CRS_017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +216,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFD4EDBC"/>
       <name val="Calibri"/>
@@ -220,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +239,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,18 +291,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -566,16 +664,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881F880D-BA02-4384-8F6D-076133AF64DE}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151573F3-A23D-4B4E-ADD7-CC4DB41C7681}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="143.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,199 +684,254 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>43</v>
       </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{CFE30C6D-328A-4138-AA85-D51810B710BA}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>